--- a/data/high_load/res_bus/va_degree.xlsx
+++ b/data/high_load/res_bus/va_degree.xlsx
@@ -470,28 +470,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.823779061091862</v>
+        <v>1.623353704656582</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.061892786921281</v>
+        <v>-1.273644312535461</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.828622552816046</v>
+        <v>-1.922114859782652</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.921723597865344</v>
+        <v>-3.076427015229247</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.186587543171973</v>
+        <v>-2.385438419559427</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.631846001568156</v>
+        <v>-2.862266130325299</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.10133783522722</v>
+        <v>-1.28872462692453</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.663425602888819</v>
+        <v>-2.796272307082909</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.906168638807888</v>
+        <v>1.798795160574832</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9729180647652367</v>
+        <v>-1.087046162908569</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.784360772423896</v>
+        <v>-1.833474718194219</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.847022140711031</v>
+        <v>-2.930953639632792</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.099404633684047</v>
+        <v>-2.208219967947583</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.533935144275875</v>
+        <v>-2.662437666756964</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.021076947935619</v>
+        <v>-1.121694902831808</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.602765125570818</v>
+        <v>-2.669505366825163</v>
       </c>
     </row>
     <row r="4">
@@ -534,28 +534,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.882091422567349</v>
+        <v>1.77999089127439</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9932317584009135</v>
+        <v>-1.082656808385055</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.792068585237956</v>
+        <v>-1.824959518271599</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.861409515105414</v>
+        <v>-2.896961730773933</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.12039241024049</v>
+        <v>-2.201885597618202</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.562220104145793</v>
+        <v>-2.681906785494177</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.04158399847689</v>
+        <v>-1.137106465961885</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.612392188222618</v>
+        <v>-2.677915652952479</v>
       </c>
     </row>
     <row r="5">
@@ -566,28 +566,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.857460939825474</v>
+        <v>1.652256565350689</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.007492521119547</v>
+        <v>-1.247877569529861</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.791026209519145</v>
+        <v>-1.910728769860097</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.849864412876429</v>
+        <v>-3.060108446492989</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.129262946778282</v>
+        <v>-2.361098136241502</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.586173357457356</v>
+        <v>-2.831301641653762</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.060391195931013</v>
+        <v>-1.262638298127859</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.621001851513192</v>
+        <v>-2.777523749469994</v>
       </c>
     </row>
     <row r="6">
@@ -598,28 +598,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.695263328241709</v>
+        <v>1.751940639838711</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.186212237666752</v>
+        <v>-1.142290848363754</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.875358458555561</v>
+        <v>-1.860019150788203</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.991733765474296</v>
+        <v>-2.97437817496948</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.301619887215995</v>
+        <v>-2.256266361852789</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.782825844871553</v>
+        <v>-2.708058231250327</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.218659478813318</v>
+        <v>-1.165185567613361</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.737244706038407</v>
+        <v>-2.707960654225188</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.708429798568018</v>
+        <v>1.743100206826236</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.188188218700217</v>
+        <v>-1.129876716517651</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.874619953909204</v>
+        <v>-1.84554750109818</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.003407146245958</v>
+        <v>-2.935954411909172</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.29765131580909</v>
+        <v>-2.245464302495385</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.757352369722442</v>
+        <v>-2.726487093947135</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.201214371582111</v>
+        <v>-1.172218741424256</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.724196421064988</v>
+        <v>-2.70196851254645</v>
       </c>
     </row>
     <row r="8">
@@ -662,28 +662,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.705847171602576</v>
+        <v>1.69976767110986</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.182075006729958</v>
+        <v>-1.191787764901553</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.880565328157679</v>
+        <v>-1.891113632621582</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.005095881779363</v>
+        <v>-3.023830678188898</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.302189679777336</v>
+        <v>-2.311663408710406</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.775245716781683</v>
+        <v>-2.775225116237671</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.21358869033755</v>
+        <v>-1.220175944129136</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.739434649290836</v>
+        <v>-2.753110090440362</v>
       </c>
     </row>
     <row r="9">
@@ -694,28 +694,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.844457150527927</v>
+        <v>1.661527512202482</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.041833363749865</v>
+        <v>-1.236824799660745</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.814483846943046</v>
+        <v>-1.904696167589456</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.903463384758709</v>
+        <v>-3.048380363143268</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.163125150596142</v>
+        <v>-2.345632260841869</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.599868680691615</v>
+        <v>-2.807712606884528</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.075511479924973</v>
+        <v>-1.249354174059202</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.639383098512896</v>
+        <v>-2.771168113048489</v>
       </c>
     </row>
     <row r="10">
@@ -726,28 +726,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.844776152540797</v>
+        <v>1.733221299193112</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.056566512233628</v>
+        <v>-1.143560242234893</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.82205984569065</v>
+        <v>-1.860241629379079</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.927124348816278</v>
+        <v>-2.959256407212425</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.174682197980965</v>
+        <v>-2.25919969307173</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.596144039190135</v>
+        <v>-2.730702443584866</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.073923858772148</v>
+        <v>-1.18419850872878</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.638851027932096</v>
+        <v>-2.723570570382611</v>
       </c>
     </row>
     <row r="11">
@@ -758,28 +758,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.665527577891161</v>
+        <v>1.746077794418035</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.225838498317748</v>
+        <v>-1.149433854625867</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.909991212143562</v>
+        <v>-1.871425845299028</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.050709688501088</v>
+        <v>-2.992277468086271</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.346187988108709</v>
+        <v>-2.264607440653259</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.817860643473217</v>
+        <v>-2.707985659328817</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.256049800897286</v>
+        <v>-1.172740530714052</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.783584252954371</v>
+        <v>-2.724647577940639</v>
       </c>
     </row>
     <row r="12">
@@ -790,28 +790,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.78336023478021</v>
+        <v>1.654726250740454</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.111225340855055</v>
+        <v>-1.244661581150557</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.847633637261948</v>
+        <v>-1.912491707169016</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.9581288833118</v>
+        <v>-3.06044360418869</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.226385814970493</v>
+        <v>-2.356484495184893</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.665672017423787</v>
+        <v>-2.820340106144748</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.133316491059913</v>
+        <v>-1.259816427201757</v>
       </c>
       <c r="J12" t="n">
-        <v>-2.686295061493236</v>
+        <v>-2.782599191077059</v>
       </c>
     </row>
     <row r="13">
@@ -822,28 +822,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.813117081955239</v>
+        <v>1.9255257975847</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.056068953424985</v>
+        <v>-0.9405944008904813</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.807960738687906</v>
+        <v>-1.759661379009618</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.878805257673048</v>
+        <v>-2.8014502778826</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.171752076787075</v>
+        <v>-2.066107142045479</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.636244082016205</v>
+        <v>-2.512002632870933</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.099443136985142</v>
+        <v>-0.9973472472618248</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.644405973965714</v>
+        <v>-2.573489591663172</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.936571238225379</v>
+        <v>1.69391891359773</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9355163502520655</v>
+        <v>-1.199569067906298</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.760831856769444</v>
+        <v>-1.89083567270643</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.807393565979444</v>
+        <v>-3.027496748586703</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.062094353905108</v>
+        <v>-2.318892835918352</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.498998637821404</v>
+        <v>-2.785467788053773</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9884257769842811</v>
+        <v>-1.223976994386481</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.570486405033228</v>
+        <v>-2.748663015929872</v>
       </c>
     </row>
     <row r="15">
@@ -886,28 +886,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.831734218506976</v>
+        <v>1.652926362263572</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.068706441005913</v>
+        <v>-1.238435380466363</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.828874417252026</v>
+        <v>-1.907064763305435</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.936622654198867</v>
+        <v>-3.047994702765936</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.186455304872797</v>
+        <v>-2.35244381044699</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.609862806405026</v>
+        <v>-2.826840785415614</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.086679784515385</v>
+        <v>-1.261072555072488</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.650394629665767</v>
+        <v>-2.778109224717921</v>
       </c>
     </row>
     <row r="16">
@@ -918,28 +918,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.746964089985733</v>
+        <v>1.919179468651762</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.128614729875814</v>
+        <v>-0.9441300338219122</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.852097765949472</v>
+        <v>-1.762134854358721</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.948452782286173</v>
+        <v>-2.803115606521201</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.25024623841494</v>
+        <v>-2.075243214818193</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.729502067804977</v>
+        <v>-2.534084457572572</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.174516416743979</v>
+        <v>-1.008727104646811</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.708838115425952</v>
+        <v>-2.578400744588487</v>
       </c>
     </row>
     <row r="17">
@@ -950,28 +950,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.742140997765759</v>
+        <v>1.740664918875779</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.124956895478985</v>
+        <v>-1.13177605040864</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.850721153964635</v>
+        <v>-1.848841535661914</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.937162667574218</v>
+        <v>-2.944004993480363</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.244247463299145</v>
+        <v>-2.249554164965575</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.726476954573912</v>
+        <v>-2.728762956377883</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.177401767889359</v>
+        <v>-1.174440123293759</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.716010631881687</v>
+        <v>-2.703947605027708</v>
       </c>
     </row>
     <row r="18">
@@ -982,28 +982,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.769879771990863</v>
+        <v>1.843907499158675</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.096248673432696</v>
+        <v>-1.038659013884578</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.83370351045157</v>
+        <v>-1.802478784082127</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.916623720491769</v>
+        <v>-2.88094295913489</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.219301531541856</v>
+        <v>-2.158482117378921</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.7008191209592</v>
+        <v>-2.611694041280678</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.149077723270515</v>
+        <v>-1.07493231323306</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.684495890408655</v>
+        <v>-2.625336406479297</v>
       </c>
     </row>
     <row r="19">
@@ -1014,28 +1014,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.959772864036592</v>
+        <v>1.86376413019816</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9010841814025755</v>
+        <v>-1.026931388231948</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.739716552972661</v>
+        <v>-1.800287067423682</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.770450850047961</v>
+        <v>-2.886180497216966</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.027819832925073</v>
+        <v>-2.146866310873936</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.467532350219977</v>
+        <v>-2.583291359964916</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9609011405743989</v>
+        <v>-1.054810767431003</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.543234526735265</v>
+        <v>-2.613329865619826</v>
       </c>
     </row>
     <row r="20">
@@ -1046,28 +1046,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.902345659083335</v>
+        <v>1.682676452134649</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.9726623083243456</v>
+        <v>-1.209459435886996</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.785103478659013</v>
+        <v>-1.89581800208397</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.844713993280008</v>
+        <v>-3.028691417045346</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.10054617053708</v>
+        <v>-2.325917521482189</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.539926320793366</v>
+        <v>-2.795522701634649</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.025923117394818</v>
+        <v>-1.235815791658444</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.607340943670649</v>
+        <v>-2.76281669770652</v>
       </c>
     </row>
     <row r="21">
@@ -1078,28 +1078,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.854862685409582</v>
+        <v>1.669777762044101</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.021165218562458</v>
+        <v>-1.218171614010052</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.802576225134674</v>
+        <v>-1.894169314399213</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.873915396207133</v>
+        <v>-3.024329820987059</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.147920904966651</v>
+        <v>-2.332929388740743</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.604384259976</v>
+        <v>-2.812241318452482</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.071266297003129</v>
+        <v>-1.245395384020203</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.631597656794721</v>
+        <v>-2.762355329206668</v>
       </c>
     </row>
     <row r="22">
@@ -1110,28 +1110,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.746063692869877</v>
+        <v>1.758054172391798</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.149258386642447</v>
+        <v>-1.1354640029705</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.867516485533367</v>
+        <v>-1.849397815176109</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.988546549884253</v>
+        <v>-2.960852472360504</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.262968355388128</v>
+        <v>-2.246718118008246</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.70699887748093</v>
+        <v>-2.699810351714442</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.169645934056826</v>
+        <v>-1.154034974268948</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.716760644568621</v>
+        <v>-2.689555071858814</v>
       </c>
     </row>
     <row r="23">
@@ -1142,28 +1142,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.683353433938742</v>
+        <v>1.87709611898928</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.201052329544187</v>
+        <v>-0.9840680151442109</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.885925990436976</v>
+        <v>-1.783475973097664</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.004631525798892</v>
+        <v>-2.83243656836313</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.314909620218476</v>
+        <v>-2.11443423962524</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.794984385821289</v>
+        <v>-2.58242072948021</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.233201567844471</v>
+        <v>-1.050822543420573</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.756458627178135</v>
+        <v>-2.614217748484228</v>
       </c>
     </row>
     <row r="24">
@@ -1174,28 +1174,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.572455716206945</v>
+        <v>1.910127688067723</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.323851099412749</v>
+        <v>-0.9538383482411965</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.955312977681835</v>
+        <v>-1.764972829232088</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.124406934732672</v>
+        <v>-2.811195507488538</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.436468870772618</v>
+        <v>-2.076635649395469</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.917144958426982</v>
+        <v>-2.520546106444073</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.341776144628546</v>
+        <v>-1.007230566174395</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.849349747750994</v>
+        <v>-2.579975321121128</v>
       </c>
     </row>
     <row r="25">
@@ -1206,28 +1206,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.766747460503359</v>
+        <v>1.690703382852496</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.107249575889439</v>
+        <v>-1.198194507159103</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.843126967868146</v>
+        <v>-1.8867045338524</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.931844453534328</v>
+        <v>-3.013147782063916</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.225453855293586</v>
+        <v>-2.31197127815947</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.693106635278867</v>
+        <v>-2.780481914539048</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.152106406353761</v>
+        <v>-1.223843232994379</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.698250744735113</v>
+        <v>-2.750545363301088</v>
       </c>
     </row>
     <row r="26">
@@ -1238,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.774601381111016</v>
+        <v>1.789791673835089</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.105281095663829</v>
+        <v>-1.077180225050794</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.837383495446601</v>
+        <v>-1.81606087374094</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.931945742006231</v>
+        <v>-2.889409717180046</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.22299293748764</v>
+        <v>-2.194399320412537</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.687589840196686</v>
+        <v>-2.672494488783951</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.141721432434735</v>
+        <v>-1.124083322242353</v>
       </c>
       <c r="J26" t="n">
-        <v>-2.680789797440556</v>
+        <v>-2.658485292553175</v>
       </c>
     </row>
     <row r="27">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.730244953427675</v>
+        <v>1.837452687264505</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.139608423802315</v>
+        <v>-1.045093529826359</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.850867988647164</v>
+        <v>-1.816230511117708</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.94447874273523</v>
+        <v>-2.900093706860929</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.25743947156816</v>
+        <v>-2.167358575498558</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.744143194108909</v>
+        <v>-2.612627271141469</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.184994958476049</v>
+        <v>-1.084930610543227</v>
       </c>
       <c r="J27" t="n">
-        <v>-2.709758232602776</v>
+        <v>-2.647502480016114</v>
       </c>
     </row>
     <row r="28">
@@ -1302,28 +1302,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.741162051504574</v>
+        <v>1.741993125378298</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.142941472918818</v>
+        <v>-1.127061177885367</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.856363247313721</v>
+        <v>-1.846223819885186</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.964255437321099</v>
+        <v>-2.935212322964505</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.255593606089352</v>
+        <v>-2.245238756299509</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.715544887328538</v>
+        <v>-2.72931756350803</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.170871762420912</v>
+        <v>-1.174423320731449</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.707453820812159</v>
+        <v>-2.704486316607504</v>
       </c>
     </row>
     <row r="29">
@@ -1334,28 +1334,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.767668712038925</v>
+        <v>1.675880125341423</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.128492659399322</v>
+        <v>-1.216423405622616</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.859961993616699</v>
+        <v>-1.902081893562057</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.979280979965135</v>
+        <v>-3.039857157029928</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.245368471901731</v>
+        <v>-2.333402190894437</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.684142017373915</v>
+        <v>-2.799793783311475</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.15015448012478</v>
+        <v>-1.242049142321646</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.702473936317505</v>
+        <v>-2.770544172268078</v>
       </c>
     </row>
     <row r="30">
@@ -1366,28 +1366,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.739719331395805</v>
+        <v>1.817950383348083</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.128377264978579</v>
+        <v>-1.072894286191215</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.83967946808369</v>
+        <v>-1.832311706532918</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.925026014563415</v>
+        <v>-2.930449625423359</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.245432302564429</v>
+        <v>-2.190747609799125</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.738840541911943</v>
+        <v>-2.624747830308636</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.175171970943594</v>
+        <v>-1.101846532218768</v>
       </c>
       <c r="J30" t="n">
-        <v>-2.695084119537457</v>
+        <v>-2.667029988872018</v>
       </c>
     </row>
     <row r="31">
@@ -1398,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.882175242036434</v>
+        <v>1.931059626871186</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.9964487139071708</v>
+        <v>-0.9406460667543692</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.788950429252694</v>
+        <v>-1.759867706044844</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.853669198397561</v>
+        <v>-2.802597128460099</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.11904955074025</v>
+        <v>-2.064366125720742</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.56282068678936</v>
+        <v>-2.505540139994358</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.041235656654963</v>
+        <v>-0.9930714693390956</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.610851435063624</v>
+        <v>-2.572470910456132</v>
       </c>
     </row>
     <row r="32">
@@ -1430,28 +1430,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.889483147368483</v>
+        <v>1.79742652903946</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.977141882426062</v>
+        <v>-1.07161945983171</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.780634475679767</v>
+        <v>-1.823634604218238</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.829749106266198</v>
+        <v>-2.896914273036709</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.103044495557278</v>
+        <v>-2.192744187075937</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.55794987251467</v>
+        <v>-2.6655083326204</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.036607218841354</v>
+        <v>-1.124506708715444</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.608759370273148</v>
+        <v>-2.673294731155165</v>
       </c>
     </row>
     <row r="33">
@@ -1462,28 +1462,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.875070712917812</v>
+        <v>1.782674756564584</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.015617788672866</v>
+        <v>-1.103708576672248</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.799877469697696</v>
+        <v>-1.847413683118855</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.88391719642219</v>
+        <v>-2.951659886543034</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.137709941257417</v>
+        <v>-2.224871944759543</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.569331516326771</v>
+        <v>-2.675082766483576</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.046705682599055</v>
+        <v>-1.138752112062057</v>
       </c>
       <c r="J33" t="n">
-        <v>-2.613867982261866</v>
+        <v>-2.691813187857105</v>
       </c>
     </row>
     <row r="34">
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.709628372695568</v>
+        <v>1.734121697231232</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.154627396320345</v>
+        <v>-1.146782402203775</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.866314789887786</v>
+        <v>-1.853286237755017</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.95992467923963</v>
+        <v>-2.958497530668317</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.277371667641097</v>
+        <v>-2.259738042035817</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.77340463360929</v>
+        <v>-2.729854259773011</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.212236560102435</v>
+        <v>-1.176596667014234</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.740666442210041</v>
+        <v>-2.703405323870493</v>
       </c>
     </row>
     <row r="35">
@@ -1526,28 +1526,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.922903327746877</v>
+        <v>1.738415601546704</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.9446205634844725</v>
+        <v>-1.155400108857481</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.755422397739548</v>
+        <v>-1.873808656721343</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.797945023941506</v>
+        <v>-2.996557236889493</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.067490507905966</v>
+        <v>-2.271115368215956</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.515587939926436</v>
+        <v>-2.71724737305246</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.9960250194501417</v>
+        <v>-1.179340270010485</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.563821632846135</v>
+        <v>-2.72765534805546</v>
       </c>
     </row>
     <row r="36">
@@ -1558,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1.72624615244737</v>
+        <v>1.811398985985692</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.173939781883057</v>
+        <v>-1.071988329850045</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.878584507654734</v>
+        <v>-1.826594718152294</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.008152311381274</v>
+        <v>-2.917334918541044</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.285508098766182</v>
+        <v>-2.192299170819302</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.730398079971708</v>
+        <v>-2.643385950501093</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.188876688442332</v>
+        <v>-1.108733414094448</v>
       </c>
       <c r="J36" t="n">
-        <v>-2.73129004748569</v>
+        <v>-2.662370392602154</v>
       </c>
     </row>
     <row r="37">
@@ -1590,28 +1590,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.745794306120052</v>
+        <v>1.773501677145337</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.124413712165866</v>
+        <v>-1.090859005810134</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.849455303805226</v>
+        <v>-1.82441853254673</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.938913379127216</v>
+        <v>-2.896938270822626</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.248928105833686</v>
+        <v>-2.209407014701741</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.7392589915678</v>
+        <v>-2.696323548673692</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.178654416450726</v>
+        <v>-1.143544589007651</v>
       </c>
       <c r="J37" t="n">
-        <v>-2.709870452960293</v>
+        <v>-2.67627652939161</v>
       </c>
     </row>
     <row r="38">
@@ -1622,28 +1622,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.870441141843498</v>
+        <v>1.905037912282074</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.007706892678884</v>
+        <v>-0.9684750528015428</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.80305813990894</v>
+        <v>-1.779813303363387</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.875877753840131</v>
+        <v>-2.839819976483632</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.135057634802994</v>
+        <v>-2.094991617526201</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.577283137984348</v>
+        <v>-2.532312184340762</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.056943620624571</v>
+        <v>-1.018564068708379</v>
       </c>
       <c r="J38" t="n">
-        <v>-2.631225821356134</v>
+        <v>-2.596236165430884</v>
       </c>
     </row>
     <row r="39">
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.803735517370876</v>
+        <v>1.962454664183817</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.084970712158875</v>
+        <v>-0.9035445415505605</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.827127944335094</v>
+        <v>-1.739986601679216</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.924230776127768</v>
+        <v>-2.774262404781</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.199704508286168</v>
+        <v>-2.033539642005669</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.64577805178</v>
+        <v>-2.478396468450549</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.110215202544857</v>
+        <v>-0.9627270991710613</v>
       </c>
       <c r="J39" t="n">
-        <v>-2.657621024731788</v>
+        <v>-2.5398260584762</v>
       </c>
     </row>
     <row r="40">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.810370771116309</v>
+        <v>1.676987812558713</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.055774562748301</v>
+        <v>-1.223137280427606</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.817753592408727</v>
+        <v>-1.902826114085731</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.887824968091061</v>
+        <v>-3.047006637923471</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.179322035886762</v>
+        <v>-2.337121992438937</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.650093539659255</v>
+        <v>-2.79718070053487</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.1119870317211</v>
+        <v>-1.239330124524534</v>
       </c>
       <c r="J40" t="n">
-        <v>-2.66405332537786</v>
+        <v>-2.766328537240332</v>
       </c>
     </row>
     <row r="41">
@@ -1718,28 +1718,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.721099301376478</v>
+        <v>1.849334626200138</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.15236226654848</v>
+        <v>-1.033240676722383</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.860801641727359</v>
+        <v>-1.808643824143012</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.959250847879367</v>
+        <v>-2.890140267621502</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.265419417621093</v>
+        <v>-2.155633526473956</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.740592059774491</v>
+        <v>-2.599273456210884</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.19200799049328</v>
+        <v>-1.072134207985113</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.725578578985044</v>
+        <v>-2.63448693816664</v>
       </c>
     </row>
     <row r="42">
@@ -1750,28 +1750,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.834046861287454</v>
+        <v>1.776780905810526</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.069621979946318</v>
+        <v>-1.101011808501621</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.826317032206031</v>
+        <v>-1.839624082277217</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.933369833647941</v>
+        <v>-2.928865886094375</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.18497429826436</v>
+        <v>-2.220595793131486</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.607799049891299</v>
+        <v>-2.68773459550055</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.083712883209918</v>
+        <v>-1.144438749252763</v>
       </c>
       <c r="J42" t="n">
-        <v>-2.645952155855157</v>
+        <v>-2.6903046821863</v>
       </c>
     </row>
     <row r="43">
@@ -1782,28 +1782,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.799046298231691</v>
+        <v>1.746962336990001</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.098060205411477</v>
+        <v>-1.133557824980564</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.84383425397769</v>
+        <v>-1.856542139256594</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.956048351303614</v>
+        <v>-2.962151397195753</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.218272700833425</v>
+        <v>-2.251655972238367</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.656475366897852</v>
+        <v>-2.715077551752849</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.121820936395908</v>
+        <v>-1.169528272249666</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.676085457096165</v>
+        <v>-2.709062318622105</v>
       </c>
     </row>
     <row r="44">
@@ -1814,28 +1814,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.750606131763853</v>
+        <v>1.877796932547576</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.134097008468177</v>
+        <v>-0.9847119463376838</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.862353050702766</v>
+        <v>-1.779266345694122</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.974984874883339</v>
+        <v>-2.82756808927055</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.257238616807992</v>
+        <v>-2.107081858581707</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.718404390505373</v>
+        <v>-2.564691030383381</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.171206121003428</v>
+        <v>-1.041906209462346</v>
       </c>
       <c r="J44" t="n">
-        <v>-2.713651934569767</v>
+        <v>-2.607121379622391</v>
       </c>
     </row>
     <row r="45">
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1.65603263763038</v>
+        <v>1.655788035982307</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.221348778964229</v>
+        <v>-1.233154262950256</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.89857251505065</v>
+        <v>-1.904477466765309</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.017944086431551</v>
+        <v>-3.043822207887662</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.334041841095803</v>
+        <v>-2.345013899618479</v>
       </c>
       <c r="H45" t="n">
-        <v>-2.818817012784407</v>
+        <v>-2.814002127376625</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.258746719879752</v>
+        <v>-1.254495681068394</v>
       </c>
       <c r="J45" t="n">
-        <v>-2.782197205142005</v>
+        <v>-2.774639871093206</v>
       </c>
     </row>
     <row r="46">
@@ -1878,28 +1878,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.660887834981999</v>
+        <v>1.788983203675732</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.229337939458274</v>
+        <v>-1.10788709990072</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.90345528468457</v>
+        <v>-1.856209833666643</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.039752844286041</v>
+        <v>-2.973642440863841</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.343011191155596</v>
+        <v>-2.230090765325456</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.815923335832834</v>
+        <v>-2.66448631121199</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.253979670579819</v>
+        <v>-1.134653553409426</v>
       </c>
       <c r="J46" t="n">
-        <v>-2.775609373735816</v>
+        <v>-2.696151989916599</v>
       </c>
     </row>
     <row r="47">
@@ -1910,28 +1910,28 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1.90584483070541</v>
+        <v>1.708181786936833</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.9526275353770587</v>
+        <v>-1.186309922138804</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.772536153969502</v>
+        <v>-1.885339356023107</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.81257012904081</v>
+        <v>-3.018873745445001</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.08467916401644</v>
+        <v>-2.304644267945058</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.544445221755351</v>
+        <v>-2.764616369755211</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.024148429508168</v>
+        <v>-1.209569974637383</v>
       </c>
       <c r="J47" t="n">
-        <v>-2.600708564694914</v>
+        <v>-2.74062226992225</v>
       </c>
     </row>
     <row r="48">
@@ -1942,28 +1942,28 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.804076748075959</v>
+        <v>1.784137603815692</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.08339939341535</v>
+        <v>-1.108671314619162</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.828395797760482</v>
+        <v>-1.842297359572551</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.923415512299067</v>
+        <v>-2.948143773066019</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.196214042278718</v>
+        <v>-2.226370174284546</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.637750580857156</v>
+        <v>-2.678182417969169</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.109071577942235</v>
+        <v>-1.135227171350354</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.662721275804416</v>
+        <v>-2.679843110965508</v>
       </c>
     </row>
     <row r="49">
@@ -1974,28 +1974,28 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.855434703045732</v>
+        <v>1.611240285668246</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.014196321962572</v>
+        <v>-1.2832984141364</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.792433513933389</v>
+        <v>-1.93169543979263</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.85730916133396</v>
+        <v>-3.082966022362988</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.140766639303845</v>
+        <v>-2.392590392667929</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.606492883631998</v>
+        <v>-2.867528449693143</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.066872434441264</v>
+        <v>-1.30201227585493</v>
       </c>
       <c r="J49" t="n">
-        <v>-2.617375399453814</v>
+        <v>-2.818671623618195</v>
       </c>
     </row>
     <row r="50">
@@ -2006,28 +2006,28 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.810410580455924</v>
+        <v>1.861876283879504</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.055775825090309</v>
+        <v>-1.009522872608527</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.813086932389012</v>
+        <v>-1.791991496163752</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.883677133918245</v>
+        <v>-2.852551885202605</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.178495347986877</v>
+        <v>-2.132782632135133</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.651796340968671</v>
+        <v>-2.592014560627628</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.109179687668795</v>
+        <v>-1.061058200546898</v>
       </c>
       <c r="J50" t="n">
-        <v>-2.654330116942066</v>
+        <v>-2.62081991527507</v>
       </c>
     </row>
     <row r="51">
@@ -2038,28 +2038,28 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.714817833420396</v>
+        <v>1.660092973059784</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.152904878115071</v>
+        <v>-1.236254084788601</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.853459596321019</v>
+        <v>-1.912156468784436</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.9449029476841</v>
+        <v>-3.056744809366014</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.267754644107042</v>
+        <v>-2.349447741648354</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.761431096720645</v>
+        <v>-2.81126511024988</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.198382693186174</v>
+        <v>-1.255774897075301</v>
       </c>
       <c r="J51" t="n">
-        <v>-2.7174686535581</v>
+        <v>-2.784769627592199</v>
       </c>
     </row>
     <row r="52">
@@ -2070,28 +2070,28 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.759316014278439</v>
+        <v>1.753419691202455</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.108953453624895</v>
+        <v>-1.136533928690886</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.829044608873959</v>
+        <v>-1.862031071713095</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.910558214017361</v>
+        <v>-2.977674748337997</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.225740413348356</v>
+        <v>-2.259797305974468</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.713628997242315</v>
+        <v>-2.720951195486047</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.154140018512601</v>
+        <v>-1.169904247119369</v>
       </c>
       <c r="J52" t="n">
-        <v>-2.677026666085694</v>
+        <v>-2.709773721586549</v>
       </c>
     </row>
     <row r="53">
@@ -2102,28 +2102,28 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1.881733320370098</v>
+        <v>1.785060348091543</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.9903175263755766</v>
+        <v>-1.080258287559827</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.789567523275254</v>
+        <v>-1.826708150293867</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.849920430500628</v>
+        <v>-2.902726751597566</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.1166002588713</v>
+        <v>-2.200245667235476</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.565281234765525</v>
+        <v>-2.673562747081353</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.044063890434572</v>
+        <v>-1.132409003467804</v>
       </c>
       <c r="J53" t="n">
-        <v>-2.616099091976548</v>
+        <v>-2.677209627611251</v>
       </c>
     </row>
     <row r="54">
@@ -2134,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1.712582118887121</v>
+        <v>1.815411395237637</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.16043897516414</v>
+        <v>-1.0479455986584</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.8582249526873</v>
+        <v>-1.805654129482151</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.955846228909508</v>
+        <v>-2.869159988532077</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.277604769324157</v>
+        <v>-2.165212711908914</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.772486897098754</v>
+        <v>-2.634397945686912</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.204109829873417</v>
+        <v>-1.098997366384541</v>
       </c>
       <c r="J54" t="n">
-        <v>-2.720832130261523</v>
+        <v>-2.646960731699942</v>
       </c>
     </row>
     <row r="55">
@@ -2166,28 +2166,28 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1.72219295172795</v>
+        <v>1.743347716338708</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.145103948595013</v>
+        <v>-1.135476566047947</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.8520314068844</v>
+        <v>-1.856157951499054</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.942597938850905</v>
+        <v>-2.961918358046058</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.258060492939892</v>
+        <v>-2.254007428925647</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.742454810452548</v>
+        <v>-2.72049157801863</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.188872893966383</v>
+        <v>-1.172337712275092</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.71565343844812</v>
+        <v>-2.70855430020213</v>
       </c>
     </row>
     <row r="56">
@@ -2198,28 +2198,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.681870603430309</v>
+        <v>1.823424152986173</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.194131357190564</v>
+        <v>-1.05814823838463</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.874996244837494</v>
+        <v>-1.820597647254142</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.984949717317443</v>
+        <v>-2.909469476262722</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.304865699745367</v>
+        <v>-2.180041263930547</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.79152008755709</v>
+        <v>-2.628276531763884</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.227904985540695</v>
+        <v>-1.096159219467766</v>
       </c>
       <c r="J56" t="n">
-        <v>-2.743479304931236</v>
+        <v>-2.651880174278683</v>
       </c>
     </row>
     <row r="57">
@@ -2230,28 +2230,28 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1.732358830245385</v>
+        <v>1.903432959604348</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.143968982546707</v>
+        <v>-0.9684558377527314</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.863120778026343</v>
+        <v>-1.773306576571495</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.962792716430791</v>
+        <v>-2.824830223984582</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.26236496757613</v>
+        <v>-2.092663185761304</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.736216525060125</v>
+        <v>-2.540381763965383</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.18811074275344</v>
+        <v>-1.020143812739233</v>
       </c>
       <c r="J57" t="n">
-        <v>-2.728490883857483</v>
+        <v>-2.591246364129352</v>
       </c>
     </row>
     <row r="58">
@@ -2262,28 +2262,28 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.772104878361644</v>
+        <v>1.766461741486032</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.101513474173116</v>
+        <v>-1.108486269264252</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.840423614632276</v>
+        <v>-1.847146700972405</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.927120965306308</v>
+        <v>-2.939151955179732</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.218786661494988</v>
+        <v>-2.231786252383039</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.683573214510143</v>
+        <v>-2.703515240556881</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.145957378770891</v>
+        <v>-1.157454676713341</v>
       </c>
       <c r="J58" t="n">
-        <v>-2.694828069660075</v>
+        <v>-2.702853506965955</v>
       </c>
     </row>
     <row r="59">
@@ -2294,28 +2294,28 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1.838680670853037</v>
+        <v>1.73828696658744</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.023562167327346</v>
+        <v>-1.14183293336598</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.789964082691836</v>
+        <v>-1.857021164427366</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.844277062600951</v>
+        <v>-2.963161381189684</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.139342687879878</v>
+        <v>-2.259944629039881</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.606059462419507</v>
+        <v>-2.730682310361801</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.074047648828478</v>
+        <v>-1.177787167241437</v>
       </c>
       <c r="J59" t="n">
-        <v>-2.623977757268496</v>
+        <v>-2.709567019996733</v>
       </c>
     </row>
     <row r="60">
@@ -2326,28 +2326,28 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1.766106597578355</v>
+        <v>1.756806906487867</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.130470595307552</v>
+        <v>-1.113998199709901</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.8667255273321</v>
+        <v>-1.844263362115777</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.989834206757338</v>
+        <v>-2.928394545580848</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.252525882416668</v>
+        <v>-2.230831398661415</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.693039843939558</v>
+        <v>-2.705995839956831</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.157137898563806</v>
+        <v>-1.162078069182535</v>
       </c>
       <c r="J60" t="n">
-        <v>-2.712189049990692</v>
+        <v>-2.705312564868754</v>
       </c>
     </row>
     <row r="61">
@@ -2358,28 +2358,28 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1.750024102732458</v>
+        <v>1.63637852289558</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.129515120355471</v>
+        <v>-1.253882579930254</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.849615187247134</v>
+        <v>-1.919155307181224</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.953112955052749</v>
+        <v>-3.064651223975076</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.247879375373712</v>
+        <v>-2.367264790902691</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.71687318875545</v>
+        <v>-2.839180327372023</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.165141816138098</v>
+        <v>-1.277401817959002</v>
       </c>
       <c r="J61" t="n">
-        <v>-2.697308548939849</v>
+        <v>-2.798272215816703</v>
       </c>
     </row>
     <row r="62">
@@ -2390,28 +2390,28 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1.835535431070516</v>
+        <v>1.868776254349448</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.051096189788519</v>
+        <v>-1.010779311866128</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.820890233659217</v>
+        <v>-1.794814203003545</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.91081276492462</v>
+        <v>-2.866978499760952</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.175822220883757</v>
+        <v>-2.131801832072939</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.621288103938136</v>
+        <v>-2.573391990056708</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.089725112548551</v>
+        <v>-1.050571619032</v>
       </c>
       <c r="J62" t="n">
-        <v>-2.650877124310438</v>
+        <v>-2.615450004638011</v>
       </c>
     </row>
     <row r="63">
@@ -2422,28 +2422,28 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1.782739436711747</v>
+        <v>1.76654933357726</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.101436462140425</v>
+        <v>-1.101929311061573</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.843968767868278</v>
+        <v>-1.829097602647147</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.948891359327207</v>
+        <v>-2.911401834559184</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.223045227906845</v>
+        <v>-2.218578108561536</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.674582983416794</v>
+        <v>-2.698269423386297</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.135809029327838</v>
+        <v>-1.146266073305282</v>
       </c>
       <c r="J63" t="n">
-        <v>-2.68393547729685</v>
+        <v>-2.676142034139656</v>
       </c>
     </row>
     <row r="64">
@@ -2454,28 +2454,28 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1.854721034632018</v>
+        <v>1.767792020510226</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.012755070589223</v>
+        <v>-1.104050073928168</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.793902565921299</v>
+        <v>-1.837252248549014</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.853048605669613</v>
+        <v>-2.92172579668907</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.138267978152885</v>
+        <v>-2.225825670685591</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.604712096798997</v>
+        <v>-2.707532402770653</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.069451040718204</v>
+        <v>-1.15402867638864</v>
       </c>
       <c r="J64" t="n">
-        <v>-2.625941921386421</v>
+        <v>-2.690135080450168</v>
       </c>
     </row>
     <row r="65">
@@ -2486,28 +2486,28 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1.902398843318897</v>
+        <v>1.664689208910372</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.9611531162723693</v>
+        <v>-1.213648369064686</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.764774800040204</v>
+        <v>-1.893270090762192</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.80786443714521</v>
+        <v>-3.019085142001382</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.082753374553884</v>
+        <v>-2.329830937709334</v>
       </c>
       <c r="H65" t="n">
-        <v>-2.535007414056681</v>
+        <v>-2.812672925708644</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.015674053296687</v>
+        <v>-1.247958998346694</v>
       </c>
       <c r="J65" t="n">
-        <v>-2.582973978012739</v>
+        <v>-2.764888465899318</v>
       </c>
     </row>
     <row r="66">
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1.855613898857017</v>
+        <v>1.801404862784365</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.019208201776834</v>
+        <v>-1.087983350845006</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.79673685066991</v>
+        <v>-1.831705833093787</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.865601020711706</v>
+        <v>-2.930377610356929</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.143941874582065</v>
+        <v>-2.202539895646984</v>
       </c>
       <c r="H66" t="n">
-        <v>-2.602757031931518</v>
+        <v>-2.645167013055896</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.06726061734011</v>
+        <v>-1.113522043807226</v>
       </c>
       <c r="J66" t="n">
-        <v>-2.622404022676335</v>
+        <v>-2.665714787953415</v>
       </c>
     </row>
     <row r="67">
@@ -2550,28 +2550,28 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1.932270014203573</v>
+        <v>1.868823196720714</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.9312659932675941</v>
+        <v>-1.017038588329857</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.760337190124768</v>
+        <v>-1.802637790251038</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.798778913486896</v>
+        <v>-2.880629862093088</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.061587099361789</v>
+        <v>-2.142267903883019</v>
       </c>
       <c r="H67" t="n">
-        <v>-2.510303048668306</v>
+        <v>-2.584888868618311</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.9960416973656779</v>
+        <v>-1.05805211251575</v>
       </c>
       <c r="J67" t="n">
-        <v>-2.577232748140279</v>
+        <v>-2.625352036250153</v>
       </c>
     </row>
     <row r="68">
@@ -2582,28 +2582,28 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.844632728910271</v>
+        <v>1.650474055963425</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.044977942408722</v>
+        <v>-1.233387498944599</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.818354871767751</v>
+        <v>-1.907951798763957</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.906023857189144</v>
+        <v>-3.042727375419582</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.164762735010705</v>
+        <v>-2.347992508610841</v>
       </c>
       <c r="H68" t="n">
-        <v>-2.599082567249787</v>
+        <v>-2.823767444437113</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.078300336694488</v>
+        <v>-1.263440493380035</v>
       </c>
       <c r="J68" t="n">
-        <v>-2.648304321476011</v>
+        <v>-2.785886033515691</v>
       </c>
     </row>
     <row r="69">
@@ -2614,28 +2614,28 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1.769875788009972</v>
+        <v>1.713890708071775</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.107651926746496</v>
+        <v>-1.174240882534605</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.84020396327656</v>
+        <v>-1.872336625298248</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.932515375120262</v>
+        <v>-2.992949870294868</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.228064751798066</v>
+        <v>-2.291573801726196</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.699854424993211</v>
+        <v>-2.76343440606303</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.150153101610089</v>
+        <v>-1.202651311214616</v>
       </c>
       <c r="J69" t="n">
-        <v>-2.688547657280399</v>
+        <v>-2.726887373977219</v>
       </c>
     </row>
     <row r="70">
@@ -2646,28 +2646,28 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.903314315227809</v>
+        <v>1.814429071019648</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.9744146051192626</v>
+        <v>-1.067325785569162</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.784270028285842</v>
+        <v>-1.826294455330634</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.846273131576656</v>
+        <v>-2.91386988136597</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.103531953397376</v>
+        <v>-2.192323147854075</v>
       </c>
       <c r="H70" t="n">
-        <v>-2.545564288921975</v>
+        <v>-2.651531303584989</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.026137824630135</v>
+        <v>-1.111361983579162</v>
       </c>
       <c r="J70" t="n">
-        <v>-2.603110946278436</v>
+        <v>-2.664302376512015</v>
       </c>
     </row>
     <row r="71">
@@ -2678,28 +2678,28 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1.801082823756479</v>
+        <v>1.828464640676206</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.090632859926715</v>
+        <v>-1.055245935818123</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.845162757036816</v>
+        <v>-1.823407327732644</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.950855220039014</v>
+        <v>-2.911745274456014</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.21201315152119</v>
+        <v>-2.179272845081251</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.650299694089896</v>
+        <v>-2.626535596063897</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.122201754405527</v>
+        <v>-1.095999805074825</v>
       </c>
       <c r="J71" t="n">
-        <v>-2.685141312140602</v>
+        <v>-2.657498711700159</v>
       </c>
     </row>
   </sheetData>
